--- a/game_data_final/Eger - Barceloneta.xlsx
+++ b/game_data_final/Eger - Barceloneta.xlsx
@@ -12,7 +12,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
+  <si>
+    <t>Number of Passes</t>
+  </si>
+  <si>
+    <t>Passing Sequence</t>
+  </si>
+  <si>
+    <t>Shooter Number</t>
+  </si>
+  <si>
+    <t>Shooter Position</t>
+  </si>
+  <si>
+    <t>Shooter Hand</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Lob</t>
+  </si>
+  <si>
+    <t>Shot Position</t>
+  </si>
+  <si>
+    <t>Shot Location</t>
+  </si>
+  <si>
+    <t>Assisting Player Number</t>
+  </si>
+  <si>
+    <t>Assisting Player Position</t>
+  </si>
+  <si>
+    <t>Assisting Player Hand</t>
+  </si>
+  <si>
+    <t>Rotation Type</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Dropped Ball</t>
+  </si>
+  <si>
+    <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>End 3-3</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>Link to Play</t>
+  </si>
+  <si>
+    <t>[4,5,6,5,4,6,5,4]</t>
+  </si>
   <si>
     <t>comments</t>
   </si>
@@ -20,9 +104,18 @@
     <t>worst possession by far</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>missed goal because of camera</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>If we were to add another field to try to better understand 6-5</t>
   </si>
   <si>
@@ -32,100 +125,10 @@
     <t xml:space="preserve">This would need more thinking on what are all the possible ways and how best to record them </t>
   </si>
   <si>
+    <t>6_in, 4_center, 1_pocket</t>
+  </si>
+  <si>
     <t>But if it we did that I think we could learn more about something we do not get</t>
-  </si>
-  <si>
-    <t>Number of Passes</t>
-  </si>
-  <si>
-    <t>Passing Sequence</t>
-  </si>
-  <si>
-    <t>Shooter Number</t>
-  </si>
-  <si>
-    <t>Shooter Position</t>
-  </si>
-  <si>
-    <t>Shooter Hand</t>
-  </si>
-  <si>
-    <t>Rebound</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Lob</t>
-  </si>
-  <si>
-    <t>Shot Position</t>
-  </si>
-  <si>
-    <t>Shot Location</t>
-  </si>
-  <si>
-    <t>Assisting Player Number</t>
-  </si>
-  <si>
-    <t>Assisting Player Position</t>
-  </si>
-  <si>
-    <t>Assisting Player Hand</t>
-  </si>
-  <si>
-    <t>Rotation Type</t>
-  </si>
-  <si>
-    <t>Timeout</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Turnover</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Dropped Ball</t>
-  </si>
-  <si>
-    <t>Kickout Position</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>Link to Play</t>
-  </si>
-  <si>
-    <t>[4,5,6,5,4,6,5,4]</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>6_in, 4_center, 1_pocket</t>
   </si>
   <si>
     <t>Barceloneta</t>
@@ -255,9 +258,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -287,14 +287,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -338,85 +335,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43527.0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -424,7 +421,7 @@
         <v>7.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>10.0</v>
@@ -442,7 +439,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -451,10 +448,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1">
         <v>8.0</v>
@@ -472,7 +469,7 @@
         <v>0.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1">
         <v>0.0</v>
@@ -480,10 +477,10 @@
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>0.2361111111111111</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>0.2222222222222222</v>
       </c>
       <c r="W2" s="1">
@@ -498,8 +495,8 @@
       <c r="Z2" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>39</v>
+      <c r="AA2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +504,7 @@
         <v>9.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>3.0</v>
@@ -525,7 +522,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1">
         <v>0.0</v>
@@ -534,10 +531,10 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1">
         <v>8.0</v>
@@ -549,13 +546,13 @@
         <v>1.0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -563,10 +560,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>0.2125</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>0.19930555555555557</v>
       </c>
       <c r="W3" s="1">
@@ -581,8 +578,8 @@
       <c r="Z3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="5" t="s">
-        <v>45</v>
+      <c r="AA3" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +587,7 @@
         <v>6.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>11.0</v>
@@ -608,7 +605,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -617,10 +614,10 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1">
         <v>10.0</v>
@@ -632,13 +629,13 @@
         <v>1.0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="1">
         <v>1.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" s="1">
         <v>0.0</v>
@@ -646,10 +643,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>0.06111111111111111</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>0.04722222222222222</v>
       </c>
       <c r="W4" s="1">
@@ -664,8 +661,8 @@
       <c r="Z4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>50</v>
+      <c r="AA4" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -673,7 +670,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>10.0</v>
@@ -691,7 +688,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>1.0</v>
@@ -700,10 +697,10 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1">
         <v>8.0</v>
@@ -715,13 +712,13 @@
         <v>1.0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="1">
         <v>1.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -729,10 +726,10 @@
       <c r="T5" s="1">
         <v>2.0</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>0.19791666666666666</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>0.19652777777777777</v>
       </c>
       <c r="W5" s="1">
@@ -747,8 +744,8 @@
       <c r="Z5" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>54</v>
+      <c r="AA5" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -756,7 +753,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>4.0</v>
@@ -774,7 +771,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -783,10 +780,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1">
         <v>10.0</v>
@@ -798,13 +795,13 @@
         <v>1.0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="1">
         <v>0.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="1">
         <v>0.0</v>
@@ -812,10 +809,10 @@
       <c r="T6" s="1">
         <v>2.0</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>0.17569444444444443</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>0.16666666666666666</v>
       </c>
       <c r="W6" s="1">
@@ -830,8 +827,8 @@
       <c r="Z6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA6" s="5" t="s">
-        <v>57</v>
+      <c r="AA6" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -839,16 +836,16 @@
         <v>10.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
@@ -857,7 +854,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -866,28 +863,28 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="1">
         <v>1.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S7" s="1">
         <v>1.0</v>
@@ -895,10 +892,10 @@
       <c r="T7" s="1">
         <v>2.0</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>0.06736111111111111</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0.050694444444444445</v>
       </c>
       <c r="W7" s="1">
@@ -913,8 +910,8 @@
       <c r="Z7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>60</v>
+      <c r="AA7" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +919,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>5.0</v>
@@ -940,7 +937,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>1.0</v>
@@ -949,10 +946,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="1">
         <v>10.0</v>
@@ -964,13 +961,13 @@
         <v>1.0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1">
         <v>0.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -978,10 +975,10 @@
       <c r="T8" s="1">
         <v>2.0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>0.004861111111111111</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>0.001388888888888889</v>
       </c>
       <c r="W8" s="1">
@@ -996,8 +993,8 @@
       <c r="Z8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>62</v>
+      <c r="AA8" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1005,7 +1002,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1">
         <v>4.0</v>
@@ -1023,7 +1020,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1">
         <v>0.0</v>
@@ -1032,10 +1029,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1">
         <v>5.0</v>
@@ -1047,13 +1044,13 @@
         <v>1.0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="1">
         <v>0.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S9" s="1">
         <v>0.0</v>
@@ -1061,10 +1058,10 @@
       <c r="T9" s="1">
         <v>3.0</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.29444444444444445</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0.2833333333333333</v>
       </c>
       <c r="W9" s="1">
@@ -1079,8 +1076,8 @@
       <c r="Z9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>65</v>
+      <c r="AA9" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1088,7 +1085,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1">
         <v>4.0</v>
@@ -1106,7 +1103,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
         <v>0.0</v>
@@ -1115,10 +1112,10 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1">
         <v>6.0</v>
@@ -1130,13 +1127,13 @@
         <v>1.0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="1">
         <v>0.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1144,10 +1141,10 @@
       <c r="T10" s="1">
         <v>3.0</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>0.22430555555555556</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>0.20972222222222223</v>
       </c>
       <c r="W10" s="1">
@@ -1162,8 +1159,8 @@
       <c r="Z10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>68</v>
+      <c r="AA10" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1171,7 +1168,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>3.0</v>
@@ -1189,7 +1186,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>0.0</v>
@@ -1198,10 +1195,10 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1">
         <v>10.0</v>
@@ -1213,13 +1210,13 @@
         <v>1.0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="1">
         <v>1.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S11" s="1">
         <v>0.0</v>
@@ -1227,10 +1224,10 @@
       <c r="T11" s="1">
         <v>3.0</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>0.08194444444444444</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>0.06875</v>
       </c>
       <c r="W11" s="1">
@@ -1245,8 +1242,8 @@
       <c r="Z11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>71</v>
+      <c r="AA11" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1254,16 +1251,16 @@
         <v>7.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>0.0</v>
@@ -1272,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1">
         <v>0.0</v>
@@ -1281,28 +1278,28 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="1">
         <v>0.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" s="1">
         <v>1.0</v>
@@ -1310,10 +1307,10 @@
       <c r="T12" s="1">
         <v>4.0</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>0.25416666666666665</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>0.24444444444444444</v>
       </c>
       <c r="W12" s="1">
@@ -1328,8 +1325,8 @@
       <c r="Z12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="5" t="s">
-        <v>73</v>
+      <c r="AA12" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1337,7 +1334,7 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1">
         <v>3.0</v>
@@ -1355,7 +1352,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1">
         <v>0.0</v>
@@ -1364,10 +1361,10 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="1">
         <v>11.0</v>
@@ -1379,13 +1376,13 @@
         <v>0.0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="1">
         <v>1.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -1393,10 +1390,10 @@
       <c r="T13" s="1">
         <v>4.0</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.16319444444444445</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0.1527777777777778</v>
       </c>
       <c r="W13" s="1">
@@ -1411,8 +1408,8 @@
       <c r="Z13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="5" t="s">
-        <v>75</v>
+      <c r="AA13" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -1420,7 +1417,7 @@
         <v>9.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>10.0</v>
@@ -1438,7 +1435,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1447,10 +1444,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1">
         <v>3.0</v>
@@ -1462,13 +1459,13 @@
         <v>1.0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="1">
         <v>0.0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S14" s="1">
         <v>0.0</v>
@@ -1476,10 +1473,10 @@
       <c r="T14" s="1">
         <v>4.0</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>0.05486111111111111</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>0.03958333333333333</v>
       </c>
       <c r="W14" s="1">
@@ -1494,12 +1491,12 @@
       <c r="Z14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA14" s="5" t="s">
-        <v>78</v>
+      <c r="AA14" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
-      <c r="U15" s="4"/>
+      <c r="U15" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1533,37 +1530,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/game_data_final/Eger - Barceloneta.xlsx
+++ b/game_data_final/Eger - Barceloneta.xlsx
@@ -26,6 +26,27 @@
     <t>Shooter Position</t>
   </si>
   <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>worst possession by far</t>
+  </si>
+  <si>
+    <t>missed goal because of camera</t>
+  </si>
+  <si>
+    <t>If we were to add another field to try to better understand 6-5</t>
+  </si>
+  <si>
+    <t>I would like to see it be on why the 6-5 was drawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This would need more thinking on what are all the possible ways and how best to record them </t>
+  </si>
+  <si>
+    <t>But if it we did that I think we could learn more about something we do not get</t>
+  </si>
+  <si>
     <t>Shooter Hand</t>
   </si>
   <si>
@@ -98,37 +119,16 @@
     <t>[4,5,6,5,4,6,5,4]</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>worst possession by far</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>missed goal because of camera</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>If we were to add another field to try to better understand 6-5</t>
-  </si>
-  <si>
-    <t>I would like to see it be on why the 6-5 was drawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This would need more thinking on what are all the possible ways and how best to record them </t>
-  </si>
-  <si>
     <t>6_in, 4_center, 1_pocket</t>
-  </si>
-  <si>
-    <t>But if it we did that I think we could learn more about something we do not get</t>
   </si>
   <si>
     <t>Barceloneta</t>
@@ -347,73 +347,73 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -421,7 +421,7 @@
         <v>7.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
         <v>10.0</v>
@@ -439,7 +439,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -448,10 +448,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1">
         <v>8.0</v>
@@ -463,7 +463,7 @@
         <v>1.0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="1">
         <v>0.0</v>
@@ -531,7 +531,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>43</v>
@@ -605,7 +605,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -688,7 +688,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>1.0</v>
@@ -700,7 +700,7 @@
         <v>53</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M5" s="1">
         <v>8.0</v>
@@ -771,7 +771,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -780,10 +780,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1">
         <v>10.0</v>
@@ -839,13 +839,13 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
@@ -854,7 +854,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -863,19 +863,19 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>60</v>
@@ -937,7 +937,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>1.0</v>
@@ -961,7 +961,7 @@
         <v>1.0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="1">
         <v>0.0</v>
@@ -1029,10 +1029,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1">
         <v>5.0</v>
@@ -1103,7 +1103,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1">
         <v>0.0</v>
@@ -1115,7 +1115,7 @@
         <v>53</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M10" s="1">
         <v>6.0</v>
@@ -1186,7 +1186,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1">
         <v>0.0</v>
@@ -1198,7 +1198,7 @@
         <v>53</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M11" s="1">
         <v>10.0</v>
@@ -1254,13 +1254,13 @@
         <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>0.0</v>
@@ -1269,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1">
         <v>0.0</v>
@@ -1278,22 +1278,22 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="1">
         <v>0.0</v>
@@ -1352,7 +1352,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1">
         <v>0.0</v>
@@ -1444,7 +1444,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>43</v>
@@ -1530,37 +1530,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
